--- a/AppData/Reports/ControlWorksAnalyzer/Template.xlsx
+++ b/AppData/Reports/ControlWorksAnalyzer/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ввод" sheetId="1" r:id="rId1"/>
@@ -551,18 +551,93 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,110 +647,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -961,8 +961,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:N347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1235,9 +1235,9 @@
         <f>IF($D$14="", F18, LEN($D$14) - LEN(SUBSTITUTE($D$14, IF(C18 = 10, "*", C18), "")))</f>
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="2" t="e">
         <f>IF(D18 &lt;&gt; "", D18*100/$D$30, "")</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="2">
@@ -1251,15 +1251,13 @@
       </c>
       <c r="D19" s="10">
         <f t="shared" ref="D19:D28" si="0">IF($D$14="", F19, LEN($D$14) - LEN(SUBSTITUTE($D$14, IF(C19 = 10, "*", C19), "")))</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="e">
         <f t="shared" ref="E19:E28" si="1">IF(D19 &lt;&gt; "", D19*100/$D$30, "")</f>
-        <v>50</v>
-      </c>
-      <c r="F19" s="29">
-        <v>1</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="29"/>
       <c r="G19" s="2">
         <v>9</v>
       </c>
@@ -1273,9 +1271,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="2">
@@ -1291,9 +1289,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="2">
@@ -1309,9 +1307,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="2">
@@ -1325,15 +1323,13 @@
       </c>
       <c r="D23" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F23" s="29">
-        <v>1</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="29"/>
       <c r="G23" s="2">
         <v>5</v>
       </c>
@@ -1347,9 +1343,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="2">
@@ -1364,9 +1360,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="2">
@@ -1381,9 +1377,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="2">
@@ -1398,9 +1394,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="2">
@@ -1415,9 +1411,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="2">
@@ -1431,16 +1427,16 @@
       </c>
       <c r="D30" s="4">
         <f>SUM(D18:D28)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="18" t="e">
         <f>(D18*10+D19*9+D20*8+D21*7+D22*6+D23*5+D24*4+D25*3+D26*2+D27*1)/SUM(D18:D28)</f>
-        <v>7</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1448,18 +1444,18 @@
       <c r="C33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="4" t="e">
         <f>1/D30*(D18*10+D19*9+D20*8+D21*7+D22*6+D23*5+D24*4+D25*3+D26*2+D27*1)</f>
-        <v>7</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="4" t="e">
         <f>1/D30*(D18*100+D19*96+D20*90+D21*74+D22*55+D23*45+D24*40+D25*32+D26*20+D27*12)</f>
-        <v>70.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1467,54 +1463,54 @@
       <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="4" t="e">
         <f>SUM(E18:E20)</f>
-        <v>50</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="4" t="e">
         <f>SUM(E21:E22)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="4" t="e">
         <f>SUM(E23:E28)</f>
-        <v>50</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="4" t="e">
         <f>SUM(E18:E22)</f>
-        <v>50</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="4" t="e">
         <f>SUM(E18:E24)</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="4" t="e">
         <f>SUM(E25:E28)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1535,25 +1531,25 @@
       <c r="C43" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="4" t="e">
         <f>IF(H43 &lt;&gt; "", H43, IF(I43 &lt;&gt; "", I43, IF(J43&lt;&gt;"",J43,K43)))</f>
-        <v>удовлетворительный.</v>
-      </c>
-      <c r="H43" s="4" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="4" t="e">
         <f>IF(AND(D40 &gt;= 95, D39 &gt;= 75, D36 &gt;= 45 ), H42,"")</f>
-        <v/>
-      </c>
-      <c r="I43" s="4" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="4" t="e">
         <f>IF(AND(D40 &gt;= 90, D39 &gt;= 60), I42,"")</f>
-        <v/>
-      </c>
-      <c r="J43" s="4" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="4" t="e">
         <f>IF(AND(D40 &gt;= 85), J42,"")</f>
-        <v>удовлетворительный.</v>
-      </c>
-      <c r="K43" s="4" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="4" t="e">
         <f>IF(AND(D40 &lt; 85), K42,"")</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1841,7 +1837,7 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -1861,7 +1857,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="str">
+      <c r="A1" s="66" t="str">
         <f xml:space="preserve"> "АНАЛИЗ
 результатов обязательной контрольной работы № " &amp; Ввод!D11 &amp; "
 " &amp; Ввод!D3</f>
@@ -1869,797 +1865,797 @@
 результатов обязательной контрольной работы № 2
 УО «Пинский ГПТК легкой промышленности»</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="46" t="str">
         <f>Ввод!D4</f>
         <v>Т291-19</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="F3" s="46" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="F3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="66" t="str">
+      <c r="G3" s="52"/>
+      <c r="H3" s="37" t="str">
         <f>Ввод!D9</f>
         <v>Техник-программист</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="14">
         <f>Ввод!D7</f>
         <v>25</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="15">
         <f>Ввод!D30</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="44" t="str">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="46" t="str">
         <f>Ввод!D8</f>
         <v>Основы алгоритмизации и программирования</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38" t="str">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="65" t="str">
         <f>Ввод!D5</f>
         <v>Аргер Н.В.</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
       <c r="P6" s="36"/>
     </row>
     <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39" t="str">
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="58" t="str">
         <f>"Текущая успеваемость по предмету по результатам " &amp; Ввод!D12 &amp; " семестра"</f>
         <v>Текущая успеваемость по предмету по результатам 2 семестра</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="40"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="49">
         <v>10</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="47" t="str">
+      <c r="B10" s="49"/>
+      <c r="C10" s="48" t="str">
         <f>IF(Ввод!D18&lt;&gt;0,Ввод!D18,"")</f>
         <v/>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="51" t="str">
+      <c r="D10" s="48"/>
+      <c r="E10" s="50" t="e">
         <f>IF(Ввод!E18&lt;&gt;0,Ввод!E18,"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="47" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="48" t="str">
         <f>IF(Ввод!D46 &lt;&gt; 0, Ввод!D46, "")</f>
         <v/>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="51" t="e">
+      <c r="H10" s="48"/>
+      <c r="I10" s="50" t="e">
         <f>IF(Ввод!E46 &lt;&gt; 0, Ввод!E46, "")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="51"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="49">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="47">
+      <c r="B11" s="49"/>
+      <c r="C11" s="48" t="str">
         <f>IF(Ввод!D19&lt;&gt;0,Ввод!D19,"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="50" t="e">
+        <f>IF(Ввод!E19&lt;&gt;0,Ввод!E19,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="48" t="str">
+        <f>IF(Ввод!D47 &lt;&gt; 0, Ввод!D47, "")</f>
+        <v/>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="50" t="e">
+        <f>IF(Ввод!E47 &lt;&gt; 0, Ввод!E47, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>8</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="48" t="str">
+        <f>IF(Ввод!D20&lt;&gt;0,Ввод!D20,"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="50" t="e">
+        <f>IF(Ввод!E20&lt;&gt;0,Ввод!E20,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="48" t="str">
+        <f>IF(Ввод!D48 &lt;&gt; 0, Ввод!D48, "")</f>
+        <v/>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="50" t="e">
+        <f>IF(Ввод!E48 &lt;&gt; 0, Ввод!E48, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
+        <v>7</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="48" t="str">
+        <f>IF(Ввод!D21&lt;&gt;0,Ввод!D21,"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="50" t="e">
+        <f>IF(Ввод!E21&lt;&gt;0,Ввод!E21,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="48" t="str">
+        <f>IF(Ввод!D49 &lt;&gt; 0, Ввод!D49, "")</f>
+        <v/>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="50" t="e">
+        <f>IF(Ввод!E49 &lt;&gt; 0, Ввод!E49, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
+        <v>6</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="48" t="str">
+        <f>IF(Ввод!D22&lt;&gt;0,Ввод!D22,"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="50" t="e">
+        <f>IF(Ввод!E22&lt;&gt;0,Ввод!E22,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="48" t="str">
+        <f>IF(Ввод!D50 &lt;&gt; 0, Ввод!D50, "")</f>
+        <v/>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="50" t="e">
+        <f>IF(Ввод!E50 &lt;&gt; 0, Ввод!E50, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
+        <v>5</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="48" t="str">
+        <f>IF(Ввод!D23&lt;&gt;0,Ввод!D23,"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="50" t="e">
+        <f>IF(Ввод!E23&lt;&gt;0,Ввод!E23,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="48" t="str">
+        <f>IF(Ввод!D51 &lt;&gt; 0, Ввод!D51, "")</f>
+        <v/>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="50" t="e">
+        <f>IF(Ввод!E51 &lt;&gt; 0, Ввод!E51, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49">
+        <v>4</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="48" t="str">
+        <f>IF(Ввод!D24&lt;&gt;0,Ввод!D24,"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="50" t="e">
+        <f>IF(Ввод!E24&lt;&gt;0,Ввод!E24,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="48" t="str">
+        <f>IF(Ввод!D52 &lt;&gt; 0, Ввод!D52, "")</f>
+        <v/>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="50" t="e">
+        <f>IF(Ввод!E52 &lt;&gt; 0, Ввод!E52, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49">
+        <v>3</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="48" t="str">
+        <f>IF(Ввод!D25&lt;&gt;0,Ввод!D25,"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="50" t="e">
+        <f>IF(Ввод!E25&lt;&gt;0,Ввод!E25,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="48" t="str">
+        <f>IF(Ввод!D53 &lt;&gt; 0, Ввод!D53, "")</f>
+        <v/>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="50" t="e">
+        <f>IF(Ввод!E53 &lt;&gt; 0, Ввод!E53, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
+        <v>2</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="48" t="str">
+        <f>IF(Ввод!D26&lt;&gt;0,Ввод!D26,"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="50" t="e">
+        <f>IF(Ввод!E26&lt;&gt;0,Ввод!E26,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="48" t="str">
+        <f>IF(Ввод!D54 &lt;&gt; 0, Ввод!D54, "")</f>
+        <v/>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="50" t="e">
+        <f>IF(Ввод!E54 &lt;&gt; 0, Ввод!E54, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
         <v>1</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="51">
-        <f>IF(Ввод!E19&lt;&gt;0,Ввод!E19,"")</f>
-        <v>50</v>
-      </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="47" t="str">
-        <f>IF(Ввод!D47 &lt;&gt; 0, Ввод!D47, "")</f>
-        <v/>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="51" t="e">
-        <f>IF(Ввод!E47 &lt;&gt; 0, Ввод!E47, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
-        <v>8</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="47" t="str">
-        <f>IF(Ввод!D20&lt;&gt;0,Ввод!D20,"")</f>
-        <v/>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="51" t="str">
-        <f>IF(Ввод!E20&lt;&gt;0,Ввод!E20,"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="47" t="str">
-        <f>IF(Ввод!D48 &lt;&gt; 0, Ввод!D48, "")</f>
-        <v/>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="51" t="e">
-        <f>IF(Ввод!E48 &lt;&gt; 0, Ввод!E48, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
-        <v>7</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="47" t="str">
-        <f>IF(Ввод!D21&lt;&gt;0,Ввод!D21,"")</f>
-        <v/>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="51" t="str">
-        <f>IF(Ввод!E21&lt;&gt;0,Ввод!E21,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="47" t="str">
-        <f>IF(Ввод!D49 &lt;&gt; 0, Ввод!D49, "")</f>
-        <v/>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51" t="e">
-        <f>IF(Ввод!E49 &lt;&gt; 0, Ввод!E49, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
-        <v>6</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="47" t="str">
-        <f>IF(Ввод!D22&lt;&gt;0,Ввод!D22,"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="51" t="str">
-        <f>IF(Ввод!E22&lt;&gt;0,Ввод!E22,"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="47" t="str">
-        <f>IF(Ввод!D50 &lt;&gt; 0, Ввод!D50, "")</f>
-        <v/>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51" t="e">
-        <f>IF(Ввод!E50 &lt;&gt; 0, Ввод!E50, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
-        <v>5</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="47">
-        <f>IF(Ввод!D23&lt;&gt;0,Ввод!D23,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="51">
-        <f>IF(Ввод!E23&lt;&gt;0,Ввод!E23,"")</f>
-        <v>50</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="47" t="str">
-        <f>IF(Ввод!D51 &lt;&gt; 0, Ввод!D51, "")</f>
-        <v/>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51" t="e">
-        <f>IF(Ввод!E51 &lt;&gt; 0, Ввод!E51, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
-        <v>4</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="47" t="str">
-        <f>IF(Ввод!D24&lt;&gt;0,Ввод!D24,"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="51" t="str">
-        <f>IF(Ввод!E24&lt;&gt;0,Ввод!E24,"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="47" t="str">
-        <f>IF(Ввод!D52 &lt;&gt; 0, Ввод!D52, "")</f>
-        <v/>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="51" t="e">
-        <f>IF(Ввод!E52 &lt;&gt; 0, Ввод!E52, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
-        <v>3</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="47" t="str">
-        <f>IF(Ввод!D25&lt;&gt;0,Ввод!D25,"")</f>
-        <v/>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="51" t="str">
-        <f>IF(Ввод!E25&lt;&gt;0,Ввод!E25,"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="47" t="str">
-        <f>IF(Ввод!D53 &lt;&gt; 0, Ввод!D53, "")</f>
-        <v/>
-      </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="51" t="e">
-        <f>IF(Ввод!E53 &lt;&gt; 0, Ввод!E53, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
-        <v>2</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="47" t="str">
-        <f>IF(Ввод!D26&lt;&gt;0,Ввод!D26,"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="51" t="str">
-        <f>IF(Ввод!E26&lt;&gt;0,Ввод!E26,"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="47" t="str">
-        <f>IF(Ввод!D54 &lt;&gt; 0, Ввод!D54, "")</f>
-        <v/>
-      </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="51" t="e">
-        <f>IF(Ввод!E54 &lt;&gt; 0, Ввод!E54, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
-        <v>1</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="47" t="str">
+      <c r="B19" s="49"/>
+      <c r="C19" s="48" t="str">
         <f>IF(Ввод!D27&lt;&gt;0,Ввод!D27,"")</f>
         <v/>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="51" t="str">
+      <c r="D19" s="48"/>
+      <c r="E19" s="50" t="e">
         <f>IF(Ввод!E27&lt;&gt;0,Ввод!E27,"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="47" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="48" t="str">
         <f>IF(Ввод!D55 &lt;&gt; 0, Ввод!D55, "")</f>
         <v/>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="51" t="e">
+      <c r="H19" s="48"/>
+      <c r="I19" s="50" t="e">
         <f>IF(Ввод!E55 &lt;&gt; 0, Ввод!E55, "")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53">
+      <c r="A20" s="62">
         <v>0</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="47" t="str">
+      <c r="B20" s="62"/>
+      <c r="C20" s="48" t="str">
         <f>IF(Ввод!D28&lt;&gt;0,Ввод!D28,"")</f>
         <v/>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="51" t="str">
+      <c r="D20" s="48"/>
+      <c r="E20" s="50" t="e">
         <f>IF(Ввод!E28&lt;&gt;0,Ввод!E28,"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="47" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="48" t="str">
         <f>IF(Ввод!D56 &lt;&gt; 0, Ввод!D56, "")</f>
         <v/>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="51" t="e">
+      <c r="H20" s="48"/>
+      <c r="I20" s="50" t="e">
         <f>IF(Ввод!E56 &lt;&gt; 0, Ввод!E56, "")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="51"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="48">
+      <c r="B21" s="61"/>
+      <c r="C21" s="40" t="e">
         <f>Ввод!D36</f>
-        <v>50</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="48" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="40" t="e">
         <f>Ввод!D63</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="62">
+      <c r="B22" s="49"/>
+      <c r="C22" s="43" t="e">
         <f>Ввод!D37</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="43" t="e">
         <f>Ввод!D64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="62" t="str">
+      <c r="B23" s="49"/>
+      <c r="C23" s="43" t="e">
         <f>IF(Ввод!D41 = 0, "", Ввод!D41)</f>
-        <v/>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="43" t="e">
         <f>IF(Ввод!D66 = 0, "", Ввод!D66)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62">
+      <c r="B24" s="60"/>
+      <c r="C24" s="43" t="e">
         <f>Ввод!D33</f>
-        <v>7</v>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="43" t="e">
         <f>Ввод!D60</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="57" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="57"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="19">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="19" t="e">
         <f>Ввод!D31</f>
-        <v>7</v>
-      </c>
-      <c r="E27" s="55" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="46" t="str">
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="52" t="e">
         <f>Ввод!D43</f>
-        <v>удовлетворительный.</v>
-      </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
     </row>
     <row r="28" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
     </row>
     <row r="32" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
     </row>
     <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
@@ -2674,47 +2670,141 @@
       <c r="J48" s="17"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="H49" s="57" t="str">
+      <c r="B49" s="54"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="H49" s="55" t="str">
         <f>Ввод!D5</f>
         <v>Аргер Н.В.</v>
       </c>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
     </row>
     <row r="50" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="59"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
+      <c r="E50" s="57"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="57" t="str">
+      <c r="H51" s="55" t="str">
         <f>Ввод!D10</f>
         <v>«08» апреля 2020 г.</v>
       </c>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A46:J46"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="C21:F21"/>
@@ -2739,100 +2829,6 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2866,7 +2862,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="str">
+      <c r="A1" s="66" t="str">
         <f xml:space="preserve"> "ПРОТОКОЛ
 результатов директорской контрольной работы
 " &amp; Ввод!D3</f>
@@ -2874,465 +2870,465 @@
 результатов директорской контрольной работы
 УО «Пинский ГПТК легкой промышленности»</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="46" t="str">
         <f>Ввод!D4</f>
         <v>Т291-19</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="14">
         <f>Ввод!D7</f>
         <v>25</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="13">
         <f>Ввод!D30</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="44" t="str">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="46" t="str">
         <f>Ввод!D8</f>
         <v>Основы алгоритмизации и программирования</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38" t="str">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="65" t="str">
         <f>Ввод!D5</f>
         <v>Аргер Н.В.</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39" t="str">
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="58" t="str">
         <f>"Текущая успеваемость по предмету по результатам " &amp; Ввод!D12 &amp; " семестра"</f>
         <v>Текущая успеваемость по предмету по результатам 2 семестра</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="40"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="49">
         <v>10</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="47" t="str">
+      <c r="B10" s="49"/>
+      <c r="C10" s="48" t="str">
         <f>IF(Ввод!D18&lt;&gt;0,Ввод!D18,"")</f>
         <v/>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="71" t="str">
+      <c r="D10" s="48"/>
+      <c r="E10" s="76" t="e">
         <f>IF(Ввод!E18&lt;&gt;0,Ввод!E18,"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="47" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="76"/>
+      <c r="G10" s="48" t="str">
         <f>IF(Ввод!D46 &lt;&gt; 0, Ввод!D46, "")</f>
         <v/>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="71" t="e">
+      <c r="H10" s="48"/>
+      <c r="I10" s="76" t="e">
         <f>IF(Ввод!E46 &lt;&gt; 0, Ввод!E46, "")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="71"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="49">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="47">
+      <c r="B11" s="49"/>
+      <c r="C11" s="48" t="str">
         <f>IF(Ввод!D19&lt;&gt;0,Ввод!D19,"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="76" t="e">
+        <f>IF(Ввод!E19&lt;&gt;0,Ввод!E19,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="76"/>
+      <c r="G11" s="48" t="str">
+        <f>IF(Ввод!D47 &lt;&gt; 0, Ввод!D47, "")</f>
+        <v/>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="76" t="e">
+        <f>IF(Ввод!E47 &lt;&gt; 0, Ввод!E47, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="76"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>8</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="48" t="str">
+        <f>IF(Ввод!D20&lt;&gt;0,Ввод!D20,"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="76" t="e">
+        <f>IF(Ввод!E20&lt;&gt;0,Ввод!E20,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="76"/>
+      <c r="G12" s="48" t="str">
+        <f>IF(Ввод!D48 &lt;&gt; 0, Ввод!D48, "")</f>
+        <v/>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="76" t="e">
+        <f>IF(Ввод!E48 &lt;&gt; 0, Ввод!E48, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
+        <v>7</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="48" t="str">
+        <f>IF(Ввод!D21&lt;&gt;0,Ввод!D21,"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="76" t="e">
+        <f>IF(Ввод!E21&lt;&gt;0,Ввод!E21,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="76"/>
+      <c r="G13" s="48" t="str">
+        <f>IF(Ввод!D49 &lt;&gt; 0, Ввод!D49, "")</f>
+        <v/>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="76" t="e">
+        <f>IF(Ввод!E49 &lt;&gt; 0, Ввод!E49, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="76"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
+        <v>6</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="48" t="str">
+        <f>IF(Ввод!D22&lt;&gt;0,Ввод!D22,"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="76" t="e">
+        <f>IF(Ввод!E22&lt;&gt;0,Ввод!E22,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="76"/>
+      <c r="G14" s="48" t="str">
+        <f>IF(Ввод!D50 &lt;&gt; 0, Ввод!D50, "")</f>
+        <v/>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="76" t="e">
+        <f>IF(Ввод!E50 &lt;&gt; 0, Ввод!E50, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="76"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
+        <v>5</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="48" t="str">
+        <f>IF(Ввод!D23&lt;&gt;0,Ввод!D23,"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="76" t="e">
+        <f>IF(Ввод!E23&lt;&gt;0,Ввод!E23,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="48" t="str">
+        <f>IF(Ввод!D51 &lt;&gt; 0, Ввод!D51, "")</f>
+        <v/>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="76" t="e">
+        <f>IF(Ввод!E51 &lt;&gt; 0, Ввод!E51, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="76"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49">
+        <v>4</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="48" t="str">
+        <f>IF(Ввод!D24&lt;&gt;0,Ввод!D24,"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="76" t="e">
+        <f>IF(Ввод!E24&lt;&gt;0,Ввод!E24,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="76"/>
+      <c r="G16" s="48" t="str">
+        <f>IF(Ввод!D52 &lt;&gt; 0, Ввод!D52, "")</f>
+        <v/>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="76" t="e">
+        <f>IF(Ввод!E52 &lt;&gt; 0, Ввод!E52, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="76"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49">
+        <v>3</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="48" t="str">
+        <f>IF(Ввод!D25&lt;&gt;0,Ввод!D25,"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="76" t="e">
+        <f>IF(Ввод!E25&lt;&gt;0,Ввод!E25,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="76"/>
+      <c r="G17" s="48" t="str">
+        <f>IF(Ввод!D53 &lt;&gt; 0, Ввод!D53, "")</f>
+        <v/>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="76" t="e">
+        <f>IF(Ввод!E53 &lt;&gt; 0, Ввод!E53, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="76"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
+        <v>2</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="48" t="str">
+        <f>IF(Ввод!D26&lt;&gt;0,Ввод!D26,"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="76" t="e">
+        <f>IF(Ввод!E26&lt;&gt;0,Ввод!E26,"")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="76"/>
+      <c r="G18" s="48" t="str">
+        <f>IF(Ввод!D54 &lt;&gt; 0, Ввод!D54, "")</f>
+        <v/>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="76" t="e">
+        <f>IF(Ввод!E54 &lt;&gt; 0, Ввод!E54, "")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="76"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
         <v>1</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="71">
-        <f>IF(Ввод!E19&lt;&gt;0,Ввод!E19,"")</f>
-        <v>50</v>
-      </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="47" t="str">
-        <f>IF(Ввод!D47 &lt;&gt; 0, Ввод!D47, "")</f>
-        <v/>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="71" t="e">
-        <f>IF(Ввод!E47 &lt;&gt; 0, Ввод!E47, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="71"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
-        <v>8</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="47" t="str">
-        <f>IF(Ввод!D20&lt;&gt;0,Ввод!D20,"")</f>
-        <v/>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="71" t="str">
-        <f>IF(Ввод!E20&lt;&gt;0,Ввод!E20,"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="47" t="str">
-        <f>IF(Ввод!D48 &lt;&gt; 0, Ввод!D48, "")</f>
-        <v/>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="71" t="e">
-        <f>IF(Ввод!E48 &lt;&gt; 0, Ввод!E48, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="71"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
-        <v>7</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="47" t="str">
-        <f>IF(Ввод!D21&lt;&gt;0,Ввод!D21,"")</f>
-        <v/>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="71" t="str">
-        <f>IF(Ввод!E21&lt;&gt;0,Ввод!E21,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="47" t="str">
-        <f>IF(Ввод!D49 &lt;&gt; 0, Ввод!D49, "")</f>
-        <v/>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="71" t="e">
-        <f>IF(Ввод!E49 &lt;&gt; 0, Ввод!E49, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="71"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
-        <v>6</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="47" t="str">
-        <f>IF(Ввод!D22&lt;&gt;0,Ввод!D22,"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="71" t="str">
-        <f>IF(Ввод!E22&lt;&gt;0,Ввод!E22,"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="47" t="str">
-        <f>IF(Ввод!D50 &lt;&gt; 0, Ввод!D50, "")</f>
-        <v/>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="71" t="e">
-        <f>IF(Ввод!E50 &lt;&gt; 0, Ввод!E50, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="71"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
-        <v>5</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="47">
-        <f>IF(Ввод!D23&lt;&gt;0,Ввод!D23,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="71">
-        <f>IF(Ввод!E23&lt;&gt;0,Ввод!E23,"")</f>
-        <v>50</v>
-      </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="47" t="str">
-        <f>IF(Ввод!D51 &lt;&gt; 0, Ввод!D51, "")</f>
-        <v/>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="71" t="e">
-        <f>IF(Ввод!E51 &lt;&gt; 0, Ввод!E51, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="71"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
-        <v>4</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="47" t="str">
-        <f>IF(Ввод!D24&lt;&gt;0,Ввод!D24,"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="71" t="str">
-        <f>IF(Ввод!E24&lt;&gt;0,Ввод!E24,"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="47" t="str">
-        <f>IF(Ввод!D52 &lt;&gt; 0, Ввод!D52, "")</f>
-        <v/>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="71" t="e">
-        <f>IF(Ввод!E52 &lt;&gt; 0, Ввод!E52, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="71"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
-        <v>3</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="47" t="str">
-        <f>IF(Ввод!D25&lt;&gt;0,Ввод!D25,"")</f>
-        <v/>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="71" t="str">
-        <f>IF(Ввод!E25&lt;&gt;0,Ввод!E25,"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="47" t="str">
-        <f>IF(Ввод!D53 &lt;&gt; 0, Ввод!D53, "")</f>
-        <v/>
-      </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="71" t="e">
-        <f>IF(Ввод!E53 &lt;&gt; 0, Ввод!E53, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
-        <v>2</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="47" t="str">
-        <f>IF(Ввод!D26&lt;&gt;0,Ввод!D26,"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="71" t="str">
-        <f>IF(Ввод!E26&lt;&gt;0,Ввод!E26,"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="47" t="str">
-        <f>IF(Ввод!D54 &lt;&gt; 0, Ввод!D54, "")</f>
-        <v/>
-      </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="71" t="e">
-        <f>IF(Ввод!E54 &lt;&gt; 0, Ввод!E54, "")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
-        <v>1</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="47" t="str">
+      <c r="B19" s="49"/>
+      <c r="C19" s="48" t="str">
         <f>IF(Ввод!D27&lt;&gt;0,Ввод!D27,"")</f>
         <v/>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="71" t="str">
+      <c r="D19" s="48"/>
+      <c r="E19" s="76" t="e">
         <f>IF(Ввод!E27&lt;&gt;0,Ввод!E27,"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="47" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="76"/>
+      <c r="G19" s="48" t="str">
         <f>IF(Ввод!D55 &lt;&gt; 0, Ввод!D55, "")</f>
         <v/>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="71" t="e">
+      <c r="H19" s="48"/>
+      <c r="I19" s="76" t="e">
         <f>IF(Ввод!E55 &lt;&gt; 0, Ввод!E55, "")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="71"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53">
+      <c r="A20" s="62">
         <v>0</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="47" t="str">
+      <c r="B20" s="62"/>
+      <c r="C20" s="48" t="str">
         <f>IF(Ввод!D28&lt;&gt;0,Ввод!D28,"")</f>
         <v/>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="71" t="str">
+      <c r="D20" s="48"/>
+      <c r="E20" s="76" t="e">
         <f>IF(Ввод!E28&lt;&gt;0,Ввод!E28,"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="47" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="76"/>
+      <c r="G20" s="48" t="str">
         <f>IF(Ввод!D56 &lt;&gt; 0, Ввод!D56, "")</f>
         <v/>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="71" t="e">
+      <c r="H20" s="48"/>
+      <c r="I20" s="76" t="e">
         <f>IF(Ввод!E56 &lt;&gt; 0, Ввод!E56, "")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="71"/>
+      <c r="J20" s="76"/>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="75">
+      <c r="B21" s="61"/>
+      <c r="C21" s="69" t="e">
         <f>Ввод!D36</f>
-        <v>50</v>
-      </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="75" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="69" t="e">
         <f>Ввод!D63</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="77"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="72">
+      <c r="B22" s="49"/>
+      <c r="C22" s="72" t="e">
         <f>Ввод!D37</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="73"/>
@@ -3346,13 +3342,13 @@
       <c r="J22" s="74"/>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="72" t="str">
+      <c r="B23" s="49"/>
+      <c r="C23" s="72" t="e">
         <f>IF(Ввод!D41 = 0, "", Ввод!D41)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="D23" s="73"/>
       <c r="E23" s="73"/>
@@ -3366,13 +3362,13 @@
       <c r="J23" s="74"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="72">
+      <c r="B24" s="60"/>
+      <c r="C24" s="72" t="e">
         <f>Ввод!D33</f>
-        <v>7</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="73"/>
@@ -3386,13 +3382,13 @@
       <c r="J24" s="74"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="72">
+      <c r="B25" s="49"/>
+      <c r="C25" s="72" t="e">
         <f>Ввод!D34</f>
-        <v>70.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="73"/>
@@ -3407,201 +3403,201 @@
     </row>
     <row r="26" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="57" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="57"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="19">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="19" t="e">
         <f>Ввод!D31</f>
-        <v>7</v>
-      </c>
-      <c r="E28" s="55" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="46" t="str">
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="52" t="e">
         <f>Ввод!D43</f>
-        <v>удовлетворительный.</v>
-      </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
     </row>
     <row r="29" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
     </row>
     <row r="32" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
     </row>
     <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
@@ -3664,70 +3660,166 @@
       <c r="J47" s="16"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="H48" s="57" t="str">
+      <c r="B48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="H48" s="55" t="str">
         <f>Ввод!D6</f>
         <v>Мельник Л.В.</v>
       </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
     </row>
     <row r="49" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
+      <c r="E49" s="57"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="H50" s="57" t="str">
+      <c r="B50" s="54"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="H50" s="55" t="str">
         <f>Ввод!D5</f>
         <v>Аргер Н.В.</v>
       </c>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
     </row>
     <row r="51" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="59"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
+      <c r="E51" s="57"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="57" t="str">
+      <c r="H52" s="55" t="str">
         <f>Ввод!D10</f>
         <v>«08» апреля 2020 г.</v>
       </c>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="H52:J52"/>
     <mergeCell ref="B38:J38"/>
@@ -3752,102 +3844,6 @@
     <mergeCell ref="B42:J42"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
